--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3516814.733965236</v>
+        <v>3592344.403630042</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>163.0915657041709</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>38.89859271481399</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>77.72878559814598</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>307.5013704811492</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>286.5751597134226</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>28.21809999282081</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>220.7465858495626</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>280.3859838477243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>105.3975347884475</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>122.5935461816077</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113168</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>118.967438727875</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>132.7115457768262</v>
       </c>
     </row>
     <row r="14">
@@ -1658,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>94.16481274941241</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.3158222056515</v>
+        <v>6.141264125553031</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>3.633341602776479</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>10.03819251977052</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>101.9713292450797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.557280961130323</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>37.34995075181539</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.23063640874302</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>125.9374683284529</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.6090483912286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>14.97068936074831</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>142.0180581854124</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>107.1555119083925</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>81.21003188889082</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784696</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>244.3240635030687</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>32.17291085526964</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>130.0008656485273</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>174.5090176487</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>80.54581026652774</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.781606227855</v>
+        <v>1310.22335213854</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2477.381446291977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2477.381446291977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2477.381446291977</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2477.381446291977</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>2477.381446291977</v>
+        <v>1700.362684114352</v>
       </c>
       <c r="Y2" t="n">
-        <v>2477.381446291977</v>
+        <v>1310.22335213854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2101.477013478765</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2101.477013478765</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2101.477013478765</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1216.807289433106</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.807289433106</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1216.807289433106</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>831.0190368348619</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>824.0735360856585</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1190.010945960183</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.010945960183</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>831.7452473534329</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>831.7452473534329</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491377</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221263</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.010945960183</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1190.010945960183</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="C10" t="n">
-        <v>325.6879402326643</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>111.0094142528941</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155874</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080546</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,16 +5120,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>843.9666117966292</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>843.9666117966292</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>843.9666117966292</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X13" t="n">
-        <v>615.9770608986119</v>
+        <v>381.3857973138602</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5279,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5306,7 +5308,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5364,19 +5366,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,13 +5536,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>837.8247430308809</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1495.246228534896</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.460813324402</v>
+        <v>1377.701578715919</v>
       </c>
       <c r="U22" t="n">
-        <v>982.3321745379599</v>
+        <v>1377.701578715919</v>
       </c>
       <c r="V22" t="n">
-        <v>727.647686332073</v>
+        <v>1123.017090510032</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>1123.017090510032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>895.0275396120151</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>674.2349604684849</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>3263.786115209751</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977053</v>
+        <v>3571.106248489713</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>3900.968876153746</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4180.508941372443</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>462.1710339621928</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>212.3448959303892</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>212.3448959303892</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>212.3448959303892</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293931</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>643.8194987924326</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>643.8194987924326</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y25" t="n">
-        <v>643.8194987924326</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,13 +6217,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,13 +6232,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3665.057938578488</v>
+        <v>465.2890973945354</v>
       </c>
       <c r="C28" t="n">
-        <v>3665.057938578488</v>
+        <v>296.3529144666285</v>
       </c>
       <c r="D28" t="n">
-        <v>3665.057938578488</v>
+        <v>296.3529144666285</v>
       </c>
       <c r="E28" t="n">
-        <v>3665.057938578488</v>
+        <v>296.3529144666285</v>
       </c>
       <c r="F28" t="n">
-        <v>3665.057938578488</v>
+        <v>296.3529144666285</v>
       </c>
       <c r="G28" t="n">
-        <v>3496.882616898308</v>
+        <v>296.3529144666285</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>145.9349060145718</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929846</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.149147719352</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.149147719352</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V28" t="n">
-        <v>4182.464659513465</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W28" t="n">
-        <v>3893.047489476505</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X28" t="n">
-        <v>3665.057938578488</v>
+        <v>646.9375622247751</v>
       </c>
       <c r="Y28" t="n">
-        <v>3665.057938578488</v>
+        <v>646.9375622247751</v>
       </c>
     </row>
     <row r="29">
@@ -6458,49 +6460,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>826.1356072130308</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="C31" t="n">
-        <v>657.1994242851239</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>507.0827848727882</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="X31" t="n">
-        <v>1009.579090436494</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="Y31" t="n">
-        <v>826.1356072130308</v>
+        <v>582.2416896507654</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,19 +6694,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.2520934878793</v>
+        <v>388.5827690683481</v>
       </c>
       <c r="C34" t="n">
-        <v>260.2520934878793</v>
+        <v>388.5827690683481</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>388.5827690683481</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>240.6696754859549</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="X34" t="n">
-        <v>441.900558318119</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="Y34" t="n">
-        <v>441.900558318119</v>
+        <v>388.5827690683481</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6932,16 +6934,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7013,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>339.7502131046252</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615139</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3889.283315426964</v>
+        <v>355.5716216891797</v>
       </c>
       <c r="C37" t="n">
-        <v>3889.283315426964</v>
+        <v>355.5716216891797</v>
       </c>
       <c r="D37" t="n">
-        <v>3889.283315426964</v>
+        <v>205.4549822768439</v>
       </c>
       <c r="E37" t="n">
-        <v>3889.283315426964</v>
+        <v>205.4549822768439</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>205.4549822768439</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4467.829124250366</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>4178.700485463924</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>4178.700485463924</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W37" t="n">
-        <v>3889.283315426964</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="X37" t="n">
-        <v>3889.283315426964</v>
+        <v>758.0126656629495</v>
       </c>
       <c r="Y37" t="n">
-        <v>3889.283315426964</v>
+        <v>537.2200865194194</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7160,64 +7162,64 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>665.6859735286132</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>773.6543838050887</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.6859735286132</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="41">
@@ -7406,40 +7408,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W43" t="n">
-        <v>1042.712955510163</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X43" t="n">
-        <v>814.7234046121455</v>
+        <v>558.0926555785018</v>
       </c>
       <c r="Y43" t="n">
-        <v>593.9308254686154</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="44">
@@ -7643,34 +7645,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,31 +7715,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.7763375151577</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C46" t="n">
-        <v>713.8401545872508</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035276</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247817</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>882.7763375151577</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>882.7763375151577</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W46" t="n">
-        <v>882.7763375151577</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>882.7763375151577</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.7763375151577</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>398.9629823660896</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>73.64859338270662</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>182.0340742867937</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.92248665775548</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>253.7371603504733</v>
       </c>
       <c r="N30" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,19 +10667,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>29.47535963978169</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>253.7371603504733</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714816</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,19 +11378,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>230.7151863772031</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>167.2699136707023</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>85.87310757526859</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45066026879995</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.26883114644329</v>
+        <v>212.4433892265418</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.2874683808268</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.5093685386187</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>65.2754918535481</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>162.9362875022473</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5638776157207</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>62.18860905552895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>99.77218706058424</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.97560496086624</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>133.644783657464</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>3.402989837518874</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>59.33805655498512</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>140.3375291694984</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>44.93311153869659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,19 +25602,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>42.19893483352226</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>254.3500874813214</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>88.58378770356754</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>5.32296253323733</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>205.6915421320496</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312482</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="I2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409897</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
@@ -26436,28 +26438,28 @@
         <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007424</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007424</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007409</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007545</v>
+        <v>7916.731656007459</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.4573626269</v>
+        <v>-102332.4573626267</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519179</v>
+        <v>487635.4218519178</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519178</v>
+        <v>487635.421851918</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.76045936998</v>
+        <v>59236.7604593702</v>
       </c>
       <c r="F6" t="n">
-        <v>584396.7969362659</v>
+        <v>584396.7969362664</v>
       </c>
       <c r="G6" t="n">
-        <v>584396.7969362659</v>
+        <v>584396.7969362664</v>
       </c>
       <c r="H6" t="n">
-        <v>584396.7969362661</v>
+        <v>584396.7969362662</v>
       </c>
       <c r="I6" t="n">
         <v>584396.7969362665</v>
       </c>
       <c r="J6" t="n">
-        <v>407973.5777436736</v>
+        <v>407973.5777436732</v>
       </c>
       <c r="K6" t="n">
-        <v>584396.7969362664</v>
+        <v>584396.7969362659</v>
       </c>
       <c r="L6" t="n">
         <v>584396.7969362664</v>
@@ -26555,13 +26557,13 @@
         <v>449595.7817024293</v>
       </c>
       <c r="N6" t="n">
+        <v>584396.7969362658</v>
+      </c>
+      <c r="O6" t="n">
         <v>584396.7969362661</v>
       </c>
-      <c r="O6" t="n">
-        <v>584396.7969362657</v>
-      </c>
       <c r="P6" t="n">
-        <v>584396.7969362661</v>
+        <v>584396.7969362664</v>
       </c>
     </row>
   </sheetData>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>53.35675465348686</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>330.832507963655</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>57.23683619419225</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>57.77152128985836</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>127.2090103073724</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>120.3973730253915</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27791,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>65.77641248702835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>126.4900618939871</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>111.0507855692102</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>26.02192683660462</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>89.93819453836485</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1.648459146963432e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>546.5043485321271</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35732,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>709.3873594165558</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35747,7 +35749,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>356.0122956238148</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36445,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>389.1274892183184</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988637</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>564.1615374009397</v>
       </c>
       <c r="N30" t="n">
-        <v>693.6972596887387</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>248.8533625877084</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>203.0727722009917</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377946</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>564.1615374009397</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332275</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187031</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3585327.38873833</v>
+        <v>3590266.651587362</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800616</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.09547483957562</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481208</v>
+        <v>14.33571678054053</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825083</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229351</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984408</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.98569063694603</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491453</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>401.3550844723701</v>
+        <v>20.52965284373308</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643572</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825083</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229353</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.889762398449</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.5968436493415</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896942</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.4019814764083</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>114.4760112588801</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385038</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
-        <v>183.1796758467007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065126</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065126</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>206.8064269214866</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056487</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174055</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151892</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505273247</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002149</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750008</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857191</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.680947310029</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>882.892694711785</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221774</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.9429818203643</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533134</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733112</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224051</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.23874728044</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.34544597717</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642683</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791245</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018215</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548707</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862878</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862878</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862878</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862878</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862878</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862878</v>
+        <v>2309.202810756597</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887066</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204938</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615918</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572631</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315293</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414844</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435187</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152619</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018215</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.93572043004</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073956</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600538</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600538</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>550.7989714776606</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>403.9090239797503</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>234.9092237180827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>77.16085115061281</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>77.16085115061281</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866321</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477902</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658196</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502483</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594881</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064321</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600538</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.549250954093</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013681</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406931</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808686</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190788</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843615</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.9429818203643</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733112</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122405</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280439</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977169</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642683</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791245</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018215</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018215</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018215</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018215</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018215</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018215</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018215</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018215</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018215</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204938</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615918</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598749</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417905</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517455</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537799</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152627</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866321</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477901</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658195</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502481</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594878</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005447</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005447</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025274</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.9429818203643</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155918</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,25 +5108,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341679</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1028.139166941222</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>859.202984013315</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>709.0863446009793</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>561.1732510185861</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>414.2833035206758</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>246.1079818404964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602859</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1383.283935952973</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771462</v>
+        <v>1383.283935952973</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771462</v>
+        <v>1128.599447747086</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.787631771462</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.787631771462</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.787631771462</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641087</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,19 +5454,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
         <v>1090.100879744681</v>
@@ -5478,10 +5478,10 @@
         <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>318.009670603816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641087</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5715,10 +5715,10 @@
         <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,19 +6165,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
         <v>1090.100879744681</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6654,13 +6654,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514071</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141859</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465293</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121722</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851608</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590528</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614716</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126477</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571598</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636232</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643584</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307616</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526312</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471177</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262957</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765157</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706288</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336682</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.2170914602857</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.2170914602857</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014286</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231256</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014186</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465294</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121723</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7010,31 +7010,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126477</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571598</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636232</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643584</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307616</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526312</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028572</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028572</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028572</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028572</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028572</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799354</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035277</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247828</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038341</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324542</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954936</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028572</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028572</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,61 +7165,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7332,49 +7332,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262958</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028587</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550594</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610183</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003432</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405188</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155804</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805385</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822377</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182378</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141859</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465293</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121722</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851608</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590528</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614716</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126477</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571598</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636232</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060425</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471177</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.206642358303</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7639,40 +7639,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182378</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126477</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571598</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636232</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471177</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473452</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.206642358303</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415565</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050875</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229567</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298192</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305135</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305135</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229572</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776807</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776807</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987299066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776804</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776807</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445238</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987299066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776807</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>1.511846891127789</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>107.0715497995092</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518767</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690262</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>57.18000134477732</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338847</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871814</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338815</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338844</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338841</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="G2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="J2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="O2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409901</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145423</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.963429212992196e-09</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925923</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159214</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159213</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007359</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007394</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007478</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007443</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007871</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.73165600783</v>
+        <v>7916.731656007447</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007506</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007876</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007506</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340931</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340931</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871649</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.4573626244</v>
+        <v>-102332.4573626267</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519176</v>
+        <v>487635.4218519175</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519157</v>
+        <v>487635.4218519175</v>
       </c>
       <c r="E6" t="n">
-        <v>58262.16919964768</v>
+        <v>59139.30133339799</v>
       </c>
       <c r="F6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.3378102944</v>
       </c>
       <c r="G6" t="n">
-        <v>583422.2056765449</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="H6" t="n">
-        <v>583422.2056765445</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="I6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.337810294</v>
       </c>
       <c r="J6" t="n">
-        <v>406998.9864839523</v>
+        <v>407876.1186177011</v>
       </c>
       <c r="K6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.337810294</v>
       </c>
       <c r="L6" t="n">
-        <v>583422.2056765455</v>
+        <v>584299.3378102944</v>
       </c>
       <c r="M6" t="n">
-        <v>448621.1904427069</v>
+        <v>449498.3225764569</v>
       </c>
       <c r="N6" t="n">
-        <v>583422.2056765443</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="O6" t="n">
-        <v>583422.2056765441</v>
+        <v>584299.337810294</v>
       </c>
       <c r="P6" t="n">
-        <v>583422.2056765448</v>
+        <v>584299.3378102939</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170852</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.743664217085</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545537</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545537</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26819,19 +26819,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170852</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.014686696129033e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545537</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545539</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545537</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.638366823905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643572</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448615</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.14268579427118</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>8.213874025386758e-12</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>22.21426855159115</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.665191980158</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42908554842489</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448615</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481211</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.1999591885372</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491455</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.665191980158</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.145538950019</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.98780970275334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.601094213676532e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.412825991399586e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.503331289626658e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.526512829121202e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51856749434004</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140994</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554443</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727431</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.167479908157</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863066</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405357</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338294</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119855</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954658</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044131</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.3907153663376</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727369</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473527</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472032</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141077</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188884</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890678</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396446</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649097</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983114</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736692</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.315665592304</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479571</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639061</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034962</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131467</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372652</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619132</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078584</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644418</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313491997</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813559</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302208</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.272457124692</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917245</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.238673766659</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175805</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383768</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329677986</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701152</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695331</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197212</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315596</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340039</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140993</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554442</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.886517872743</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081569</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863066</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405356</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338293</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119855</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954657</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.988205504413</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633757</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727368</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473525</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472031</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141075</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188881</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890678</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396443</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649096</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983113</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736691</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923039</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479571</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639061</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034961</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131466</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372651</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061913</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078582</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644417</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313491996</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813557</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302205</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.272457124692</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917245</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666589</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175802</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383765</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329677984</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701151</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695331</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197212</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315594</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,16 +32235,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927188</v>
@@ -32253,19 +32253,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
         <v>0.2670576580354894</v>
@@ -32311,7 +32311,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
@@ -32320,19 +32320,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710957</v>
@@ -32341,13 +32341,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,19 +32405,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336902</v>
@@ -32426,7 +32426,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,16 +32472,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927188</v>
@@ -32490,19 +32490,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
         <v>0.2670576580354894</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,19 +32642,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336902</v>
@@ -32663,7 +32663,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343412</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435292</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060954</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492226</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530442</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116789</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898683</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577066</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031293</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.702947571385</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.441326826293</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338894</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.581740424589</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751834</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137337</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713923</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535651</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458876</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557977</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873117</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181305</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343411</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435291</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060953</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492225</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530441</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116788</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898682</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770658</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031292</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730133</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262929</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338894</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.581740424589</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.641225873564</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137337</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871392</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850081</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535651</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458875</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557977</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873114</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734233</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415667</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507424</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541597</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507422</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081121</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541597</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36053,16 +36053,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081121</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980131</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36290,16 +36290,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005173</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560236</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504654</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411074</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092047</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209228</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005173</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560236</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504654</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411074</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092047</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209228</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350593</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092045</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092047</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970350593</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092047</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
